--- a/v0.7.1/StructureDefinition-Claim.xlsx
+++ b/v0.7.1/StructureDefinition-Claim.xlsx
@@ -558,7 +558,7 @@
     <t>A more granular claim typecode.</t>
   </si>
   <si>
-    <t>https://staging-hcx.swasth.app/hapi-fhir/fhir/ValueSet/hcx-admission-types</t>
+    <t>https://staging-hcx.swasth.app/hapi-fhir/fhir/ValueSet/hcx-claim-sub-types</t>
   </si>
   <si>
     <t>Claim.use</t>
